--- a/SQL/데이터 모델링/이승섭_모델링_교사.xlsx
+++ b/SQL/데이터 모델링/이승섭_모델링_교사.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dw-018\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zlzm2\OneDrive\바탕 화면\새 폴더 (2)\DW_memo\SQL\데이터 모델링\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12288"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -513,24 +513,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C3:J20"/>
+  <dimension ref="C3:I20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="4" max="4" width="13.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.69921875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="3:9" x14ac:dyDescent="0.4">
       <c r="D3" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C4" s="3" t="s">
         <v>3</v>
       </c>
@@ -541,7 +541,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="5" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:9" x14ac:dyDescent="0.4">
       <c r="D5" s="2" t="s">
         <v>1</v>
       </c>
@@ -549,7 +549,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="3:9" x14ac:dyDescent="0.4">
       <c r="D6" s="2" t="s">
         <v>2</v>
       </c>
@@ -557,7 +557,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:9" x14ac:dyDescent="0.4">
       <c r="D7" s="2" t="s">
         <v>4</v>
       </c>
@@ -565,7 +565,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="3:9" x14ac:dyDescent="0.4">
       <c r="D8" s="2" t="s">
         <v>5</v>
       </c>
@@ -573,7 +573,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="3:9" x14ac:dyDescent="0.4">
       <c r="D9" s="4" t="s">
         <v>6</v>
       </c>
@@ -581,7 +581,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="3:9" x14ac:dyDescent="0.4">
       <c r="D10" s="4" t="s">
         <v>7</v>
       </c>
@@ -589,7 +589,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="3:9" x14ac:dyDescent="0.4">
       <c r="D13" s="8"/>
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
@@ -597,7 +597,7 @@
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
     </row>
-    <row r="14" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="3:9" x14ac:dyDescent="0.4">
       <c r="D14" s="5"/>
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
@@ -605,7 +605,7 @@
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
     </row>
-    <row r="15" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="3:9" x14ac:dyDescent="0.4">
       <c r="D15" s="5"/>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
@@ -613,19 +613,17 @@
       <c r="H15" s="6"/>
       <c r="I15" s="6"/>
     </row>
-    <row r="16" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="3:9" x14ac:dyDescent="0.4">
       <c r="D16" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="9" t="s">
+      <c r="G16" s="9" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="4:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="4:8" x14ac:dyDescent="0.4">
       <c r="D17" s="4" t="s">
         <v>14</v>
       </c>
@@ -633,54 +631,52 @@
         <v>1</v>
       </c>
       <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="10" t="s">
+      <c r="G17" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="J17" s="2">
+      <c r="H17" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="4:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="4:8" x14ac:dyDescent="0.4">
       <c r="D18" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E18" s="2">
         <v>2</v>
       </c>
-      <c r="I18" s="10" t="s">
+      <c r="G18" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="J18" s="2">
+      <c r="H18" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="4:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="4:8" x14ac:dyDescent="0.4">
       <c r="D19" s="4" t="s">
         <v>16</v>
       </c>
       <c r="E19" s="2">
         <v>3</v>
       </c>
-      <c r="I19" s="10" t="s">
+      <c r="G19" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="J19" s="2">
+      <c r="H19" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="4:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="4:8" x14ac:dyDescent="0.4">
       <c r="D20" s="4" t="s">
         <v>17</v>
       </c>
       <c r="E20" s="2">
         <v>4</v>
       </c>
-      <c r="I20" s="10" t="s">
+      <c r="G20" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="J20" s="2">
+      <c r="H20" s="2">
         <v>4</v>
       </c>
     </row>
